--- a/book-examples/chapter-11/EX-CH-11.xlsx
+++ b/book-examples/chapter-11/EX-CH-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/285c4288e9ca29f3/Documents/GitHub/Essentials-of-Pricing-Analytics/Digital Resources/Excel - Examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/285c4288e9ca29f3/Documents/GitHub/pricing-analytics/book-examples/chapter-11/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{87D43F57-3479-4560-BB92-F6751A35F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C3FBB33-EB01-451B-9271-2A6A22A4B4E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" activeTab="4" xr2:uid="{D04462D9-6F08-42BA-B42C-C8B47B24EEF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{D04462D9-6F08-42BA-B42C-C8B47B24EEF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex-11-1" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1567,7 +1567,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2842,8 +2842,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="192489" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 9">
@@ -2933,7 +2933,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 9">
@@ -2998,8 +2998,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="168315" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 10">
@@ -3089,7 +3089,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 10">
@@ -3491,7 +3491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428A9880-8A0C-4084-8CD5-F0372C654D57}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
@@ -4210,7 +4210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9119618B-9ED6-4077-A42B-38B101235B51}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
